--- a/Diff Probe BOM V3b.xlsx
+++ b/Diff Probe BOM V3b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Differential Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78EBA123-DE3D-4B4F-831B-C3FBFE718041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD6724B-F350-4BC4-9C06-784FCD52C301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29850" yWindow="135" windowWidth="24180" windowHeight="15165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2115" windowWidth="24180" windowHeight="15165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="235">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -706,9 +706,6 @@
     <t>1276-1482-1-ND</t>
   </si>
   <si>
-    <t>C24, C31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Note1: The sum of these capacitors should be 575pF if using the source for 10pF input caps. Be prepared to change C7/C12 value if the AC gain can't be adjusted to the correct value with C5 and C10. </t>
   </si>
   <si>
@@ -722,6 +719,12 @@
   </si>
   <si>
     <t>6.45mm Board Edge Female SMA</t>
+  </si>
+  <si>
+    <t>C24, C31 (Note 6)</t>
+  </si>
+  <si>
+    <t>Note 6: 0402 Tantalum is hard to find, but there is a Tantalum Poly available from Digikey : 478-10032-1-ND, when you use a X5R, use a 10uF version</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -832,7 +835,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{8873537C-C51C-42F8-A6A9-09DFB6950BAE}"/>
@@ -1151,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1751,7 +1753,7 @@
         <v>227</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -2106,13 +2108,13 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" t="s">
         <v>230</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>231</v>
-      </c>
-      <c r="C38" t="s">
-        <v>232</v>
       </c>
       <c r="D38" t="s">
         <v>222</v>
@@ -2122,7 +2124,7 @@
       </c>
       <c r="G38"/>
       <c r="H38" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>220</v>
@@ -2133,7 +2135,6 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="C39" s="16"/>
       <c r="E39"/>
       <c r="G39"/>
     </row>
@@ -2262,7 +2263,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2341,7 +2342,9 @@
       <c r="L56" s="10"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="11"/>
+      <c r="A57" s="11" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="11"/>
